--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H2">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I2">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J2">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.8434684031215</v>
+        <v>24.55401366666667</v>
       </c>
       <c r="N2">
-        <v>18.8434684031215</v>
+        <v>73.662041</v>
       </c>
       <c r="O2">
-        <v>0.2231603195813729</v>
+        <v>0.2501033965205259</v>
       </c>
       <c r="P2">
-        <v>0.2231603195813729</v>
+        <v>0.250103396520526</v>
       </c>
       <c r="Q2">
-        <v>14.49408596600583</v>
+        <v>22.920975325724</v>
       </c>
       <c r="R2">
-        <v>14.49408596600583</v>
+        <v>206.288777931516</v>
       </c>
       <c r="S2">
-        <v>0.04841970651280894</v>
+        <v>0.05229553691525631</v>
       </c>
       <c r="T2">
-        <v>0.04841970651280894</v>
+        <v>0.05229553691525632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H3">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I3">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J3">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.10655442563464</v>
+        <v>1.205204666666667</v>
       </c>
       <c r="N3">
-        <v>1.10655442563464</v>
+        <v>3.615614</v>
       </c>
       <c r="O3">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="P3">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="Q3">
-        <v>0.8511434640427363</v>
+        <v>1.125048914696</v>
       </c>
       <c r="R3">
-        <v>0.8511434640427363</v>
+        <v>10.125440232264</v>
       </c>
       <c r="S3">
-        <v>0.002843374658181482</v>
+        <v>0.002566864464267526</v>
       </c>
       <c r="T3">
-        <v>0.002843374658181482</v>
+        <v>0.002566864464267526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H4">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I4">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J4">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.5003545949638</v>
+        <v>67.337282</v>
       </c>
       <c r="N4">
-        <v>59.5003545949638</v>
+        <v>202.011846</v>
       </c>
       <c r="O4">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837075</v>
       </c>
       <c r="P4">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837076</v>
       </c>
       <c r="Q4">
-        <v>45.76669411690551</v>
+        <v>62.85881404874399</v>
       </c>
       <c r="R4">
-        <v>45.76669411690551</v>
+        <v>565.7293264386959</v>
       </c>
       <c r="S4">
-        <v>0.1528906274186212</v>
+        <v>0.1434160363519126</v>
       </c>
       <c r="T4">
-        <v>0.1528906274186212</v>
+        <v>0.1434160363519126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.769183552408262</v>
+        <v>0.9334919999999999</v>
       </c>
       <c r="H5">
-        <v>0.769183552408262</v>
+        <v>2.800476</v>
       </c>
       <c r="I5">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="J5">
-        <v>0.2169727423031103</v>
+        <v>0.209095668602663</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.98877573070294</v>
+        <v>5.078950333333333</v>
       </c>
       <c r="N5">
-        <v>4.98877573070294</v>
+        <v>15.236851</v>
       </c>
       <c r="O5">
-        <v>0.05908130937290944</v>
+        <v>0.0517334048262004</v>
       </c>
       <c r="P5">
-        <v>0.05908130937290944</v>
+        <v>0.05173340482620041</v>
       </c>
       <c r="Q5">
-        <v>3.837284238710211</v>
+        <v>4.741159504563999</v>
       </c>
       <c r="R5">
-        <v>3.837284238710211</v>
+        <v>42.670435541076</v>
       </c>
       <c r="S5">
-        <v>0.01281903371349861</v>
+        <v>0.01081723087122661</v>
       </c>
       <c r="T5">
-        <v>0.01281903371349861</v>
+        <v>0.01081723087122661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H6">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I6">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J6">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.8434684031215</v>
+        <v>24.55401366666667</v>
       </c>
       <c r="N6">
-        <v>18.8434684031215</v>
+        <v>73.662041</v>
       </c>
       <c r="O6">
-        <v>0.2231603195813729</v>
+        <v>0.2501033965205259</v>
       </c>
       <c r="P6">
-        <v>0.2231603195813729</v>
+        <v>0.250103396520526</v>
       </c>
       <c r="Q6">
-        <v>29.84767159654277</v>
+        <v>48.232283881898</v>
       </c>
       <c r="R6">
-        <v>29.84767159654277</v>
+        <v>434.090554937082</v>
       </c>
       <c r="S6">
-        <v>0.09971070284700165</v>
+        <v>0.1100447579742441</v>
       </c>
       <c r="T6">
-        <v>0.09971070284700165</v>
+        <v>0.1100447579742441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H7">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I7">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J7">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10655442563464</v>
+        <v>1.205204666666667</v>
       </c>
       <c r="N7">
-        <v>1.10655442563464</v>
+        <v>3.615614</v>
       </c>
       <c r="O7">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="P7">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="Q7">
-        <v>1.752759757039872</v>
+        <v>2.367424503692</v>
       </c>
       <c r="R7">
-        <v>1.752759757039872</v>
+        <v>21.306820533228</v>
       </c>
       <c r="S7">
-        <v>0.005855361505539642</v>
+        <v>0.005401416552635145</v>
       </c>
       <c r="T7">
-        <v>0.005855361505539642</v>
+        <v>0.005401416552635145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H8">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I8">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J8">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.5003545949638</v>
+        <v>67.337282</v>
       </c>
       <c r="N8">
-        <v>59.5003545949638</v>
+        <v>202.011846</v>
       </c>
       <c r="O8">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837075</v>
       </c>
       <c r="P8">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837076</v>
       </c>
       <c r="Q8">
-        <v>94.24735435298797</v>
+        <v>132.272912500188</v>
       </c>
       <c r="R8">
-        <v>94.24735435298797</v>
+        <v>1190.456212501692</v>
       </c>
       <c r="S8">
-        <v>0.3148476729117909</v>
+        <v>0.3017883349308809</v>
       </c>
       <c r="T8">
-        <v>0.3148476729117909</v>
+        <v>0.3017883349308809</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58397970893715</v>
+        <v>1.964334</v>
       </c>
       <c r="H9">
-        <v>1.58397970893715</v>
+        <v>5.893002</v>
       </c>
       <c r="I9">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="J9">
-        <v>0.4468119737149027</v>
+        <v>0.4399970552387631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.98877573070294</v>
+        <v>5.078950333333333</v>
       </c>
       <c r="N9">
-        <v>4.98877573070294</v>
+        <v>15.236851</v>
       </c>
       <c r="O9">
-        <v>0.05908130937290944</v>
+        <v>0.0517334048262004</v>
       </c>
       <c r="P9">
-        <v>0.05908130937290944</v>
+        <v>0.05173340482620041</v>
       </c>
       <c r="Q9">
-        <v>7.902119529871561</v>
+        <v>9.976754824078</v>
       </c>
       <c r="R9">
-        <v>7.902119529871561</v>
+        <v>89.790793416702</v>
       </c>
       <c r="S9">
-        <v>0.02639823645057044</v>
+        <v>0.02276254578100299</v>
       </c>
       <c r="T9">
-        <v>0.02639823645057044</v>
+        <v>0.02276254578100299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.19190670570932</v>
+        <v>0.1531806666666667</v>
       </c>
       <c r="H10">
-        <v>1.19190670570932</v>
+        <v>0.459542</v>
       </c>
       <c r="I10">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585257</v>
       </c>
       <c r="J10">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585256</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.8434684031215</v>
+        <v>24.55401366666667</v>
       </c>
       <c r="N10">
-        <v>18.8434684031215</v>
+        <v>73.662041</v>
       </c>
       <c r="O10">
-        <v>0.2231603195813729</v>
+        <v>0.2501033965205259</v>
       </c>
       <c r="P10">
-        <v>0.2231603195813729</v>
+        <v>0.250103396520526</v>
       </c>
       <c r="Q10">
-        <v>22.45965634850221</v>
+        <v>3.761200182802444</v>
       </c>
       <c r="R10">
-        <v>22.45965634850221</v>
+        <v>33.850801645222</v>
       </c>
       <c r="S10">
-        <v>0.07502991022156225</v>
+        <v>0.008581396742950383</v>
       </c>
       <c r="T10">
-        <v>0.07502991022156225</v>
+        <v>0.008581396742950383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.19190670570932</v>
+        <v>0.1531806666666667</v>
       </c>
       <c r="H11">
-        <v>1.19190670570932</v>
+        <v>0.459542</v>
       </c>
       <c r="I11">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585257</v>
       </c>
       <c r="J11">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585256</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.10655442563464</v>
+        <v>1.205204666666667</v>
       </c>
       <c r="N11">
-        <v>1.10655442563464</v>
+        <v>3.615614</v>
       </c>
       <c r="O11">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="P11">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="Q11">
-        <v>1.318909640146253</v>
+        <v>0.1846140543097778</v>
       </c>
       <c r="R11">
-        <v>1.318909640146253</v>
+        <v>1.661526488788</v>
       </c>
       <c r="S11">
-        <v>0.00440601896818985</v>
+        <v>0.0004212076909919698</v>
       </c>
       <c r="T11">
-        <v>0.00440601896818985</v>
+        <v>0.0004212076909919697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.19190670570932</v>
+        <v>0.1531806666666667</v>
       </c>
       <c r="H12">
-        <v>1.19190670570932</v>
+        <v>0.459542</v>
       </c>
       <c r="I12">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585257</v>
       </c>
       <c r="J12">
-        <v>0.336215283981987</v>
+        <v>0.03431139625585256</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5003545949638</v>
+        <v>67.337282</v>
       </c>
       <c r="N12">
-        <v>59.5003545949638</v>
+        <v>202.011846</v>
       </c>
       <c r="O12">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837075</v>
       </c>
       <c r="P12">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837076</v>
       </c>
       <c r="Q12">
-        <v>70.91887163381971</v>
+        <v>10.31476974828133</v>
       </c>
       <c r="R12">
-        <v>70.91887163381971</v>
+        <v>92.83292773453199</v>
       </c>
       <c r="S12">
-        <v>0.2369153155833945</v>
+        <v>0.02353374646925402</v>
       </c>
       <c r="T12">
-        <v>0.2369153155833945</v>
+        <v>0.02353374646925402</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1531806666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.459542</v>
+      </c>
+      <c r="I13">
+        <v>0.03431139625585257</v>
+      </c>
+      <c r="J13">
+        <v>0.03431139625585256</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.078950333333333</v>
+      </c>
+      <c r="N13">
+        <v>15.236851</v>
+      </c>
+      <c r="O13">
+        <v>0.0517334048262004</v>
+      </c>
+      <c r="P13">
+        <v>0.05173340482620041</v>
+      </c>
+      <c r="Q13">
+        <v>0.7779969980268888</v>
+      </c>
+      <c r="R13">
+        <v>7.001972982242</v>
+      </c>
+      <c r="S13">
+        <v>0.001775045352656198</v>
+      </c>
+      <c r="T13">
+        <v>0.001775045352656198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.240256</v>
+      </c>
+      <c r="I14">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J14">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.55401366666667</v>
+      </c>
+      <c r="N14">
+        <v>73.662041</v>
+      </c>
+      <c r="O14">
+        <v>0.2501033965205259</v>
+      </c>
+      <c r="P14">
+        <v>0.250103396520526</v>
+      </c>
+      <c r="Q14">
+        <v>34.70510125805512</v>
+      </c>
+      <c r="R14">
+        <v>312.345911322496</v>
+      </c>
+      <c r="S14">
+        <v>0.07918170488807515</v>
+      </c>
+      <c r="T14">
+        <v>0.07918170488807515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.240256</v>
+      </c>
+      <c r="I15">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J15">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.205204666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.615614</v>
+      </c>
+      <c r="O15">
+        <v>0.01227602886956614</v>
+      </c>
+      <c r="P15">
+        <v>0.01227602886956614</v>
+      </c>
+      <c r="Q15">
+        <v>1.703458773020445</v>
+      </c>
+      <c r="R15">
+        <v>15.331128957184</v>
+      </c>
+      <c r="S15">
+        <v>0.003886540161671503</v>
+      </c>
+      <c r="T15">
+        <v>0.003886540161671503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.19190670570932</v>
-      </c>
-      <c r="H13">
-        <v>1.19190670570932</v>
-      </c>
-      <c r="I13">
-        <v>0.336215283981987</v>
-      </c>
-      <c r="J13">
-        <v>0.336215283981987</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.98877573070294</v>
-      </c>
-      <c r="N13">
-        <v>4.98877573070294</v>
-      </c>
-      <c r="O13">
-        <v>0.05908130937290944</v>
-      </c>
-      <c r="P13">
-        <v>0.05908130937290944</v>
-      </c>
-      <c r="Q13">
-        <v>5.946155246704747</v>
-      </c>
-      <c r="R13">
-        <v>5.946155246704747</v>
-      </c>
-      <c r="S13">
-        <v>0.01986403920884038</v>
-      </c>
-      <c r="T13">
-        <v>0.01986403920884038</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.240256</v>
+      </c>
+      <c r="I16">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J16">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>67.337282</v>
+      </c>
+      <c r="N16">
+        <v>202.011846</v>
+      </c>
+      <c r="O16">
+        <v>0.6858871697837075</v>
+      </c>
+      <c r="P16">
+        <v>0.6858871697837076</v>
+      </c>
+      <c r="Q16">
+        <v>95.17577134139735</v>
+      </c>
+      <c r="R16">
+        <v>856.5819420725761</v>
+      </c>
+      <c r="S16">
+        <v>0.2171490520316601</v>
+      </c>
+      <c r="T16">
+        <v>0.2171490520316601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.413418666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.240256</v>
+      </c>
+      <c r="I17">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="J17">
+        <v>0.3165958799027214</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.078950333333333</v>
+      </c>
+      <c r="N17">
+        <v>15.236851</v>
+      </c>
+      <c r="O17">
+        <v>0.0517334048262004</v>
+      </c>
+      <c r="P17">
+        <v>0.05173340482620041</v>
+      </c>
+      <c r="Q17">
+        <v>7.178683208206223</v>
+      </c>
+      <c r="R17">
+        <v>64.60814887385601</v>
+      </c>
+      <c r="S17">
+        <v>0.01637858282131461</v>
+      </c>
+      <c r="T17">
+        <v>0.01637858282131461</v>
       </c>
     </row>
   </sheetData>
